--- a/External_data_files_DDT/Admin_Search_Data.xlsx
+++ b/External_data_files_DDT/Admin_Search_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahbaaz\Documents\automation testing notes\ohrm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahbaaz\git\SI-GuidedProject-705570-1704892459\External_data_files_DDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F18CD7-D63A-4F12-906C-F7B2BCC5FA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615389DA-09AC-4660-AC15-3F1190EE7FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F175ACCC-AF0F-40B2-A78B-57E431C77975}"/>
+    <workbookView xWindow="6180" yWindow="420" windowWidth="21600" windowHeight="11385" xr2:uid="{F175ACCC-AF0F-40B2-A78B-57E431C77975}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>emp_name</t>
   </si>
@@ -39,9 +39,6 @@
     <t>emp_status</t>
   </si>
   <si>
-    <t>Mike Tyson</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -51,10 +48,41 @@
     <t>validation_text</t>
   </si>
   <si>
-    <t>johnny</t>
-  </si>
-  <si>
-    <t>John Kenny</t>
+    <t>Bob Tester</t>
+  </si>
+  <si>
+    <t>Raleigh Johnston</t>
+  </si>
+  <si>
+    <t>Theodore Schuppe</t>
+  </si>
+  <si>
+    <t>Felisa Blick</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>kendall.schowalter</t>
+  </si>
+  <si>
+    <t>Rodney Hahn</t>
+  </si>
+  <si>
+    <t>Peter.Anderson</t>
+  </si>
+  <si>
+    <t>Peter Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Enabled</t>
+  </si>
+  <si>
+    <t>Rebecca.Harmony</t>
+  </si>
+  <si>
+    <t>Rebecca Harmony</t>
   </si>
 </sst>
 </file>
@@ -90,8 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C61EFE-484F-4356-8AD3-4E1371EF3206}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,6 +449,7 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -433,35 +466,87 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
